--- a/data/trans_dic/P64D$bicicleta_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P64D$bicicleta_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,7 +580,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 3,36</t>
+          <t>0,17; 3,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -589,14 +590,14 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,08</t>
+          <t>0,05; 2,02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -634,19 +635,19 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,62</t>
+          <t>0,1; 2,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,26</t>
+          <t>0,08; 1,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,53</t>
+          <t>0,68; 5,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 3,93</t>
+          <t>0,27; 4,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,17</t>
+          <t>0,75; 3,92</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,15</t>
+          <t>0,3; 4,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,24</t>
+          <t>0,0; 68,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 52,63</t>
+          <t>0,58; 53,28</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,07</t>
+          <t>0,0; 3,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,77</t>
+          <t>0,0; 0,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,7 +830,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,39</t>
+          <t>0,0; 4,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -839,14 +840,14 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,77</t>
+          <t>0,0; 2,75</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,31</t>
+          <t>0,46; 4,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,34</t>
+          <t>0,1; 1,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,85</t>
+          <t>0,43; 2,61</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,99</t>
+          <t>0,23; 3,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,69</t>
+          <t>0,68; 3,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,76</t>
+          <t>0,59; 2,71</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,95</t>
+          <t>0,75; 1,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,57; 22,66</t>
+          <t>0,58; 20,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,87; 11,03</t>
+          <t>0,91; 11,62</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, se desplaza desde su casa al centro de trabajo/estudios en bicicleta</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2214</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2214</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>332; 6604</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1074</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>177; 6789</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1251</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 848</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>160; 4082</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>324; 4194</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3630</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1544</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5174</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1011; 8706</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>326; 4878</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2013; 10570</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2576</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>70358</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>72934</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>496; 7116</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 176576</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2474; 227058</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3498</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 900</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3731</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1720</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1720</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6603</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1274</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6088</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>5747</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1139</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>6886</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1535; 15519</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>320; 4013</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2730; 16705</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>8231</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>4894</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>13125</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1425; 19513</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1855; 9868</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>5348; 24349</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>24970</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>79179</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>104150</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>14805; 37416</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>8516; 301237</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>31321; 398185</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>